--- a/contratos/contratos-7-2011.xlsx
+++ b/contratos/contratos-7-2011.xlsx
@@ -463,7 +463,7 @@
     <t>DISTRIBUIDORA ROCCA S.A.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
@@ -538,7 +538,7 @@
     <t>GABIOUD HUGO ALBERTO Y EDUARDO RAUL S.H.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>TRAZA S.A.</t>
@@ -892,337 +892,337 @@
     <t>42</t>
   </si>
   <si>
-    <t>10.340,00</t>
-  </si>
-  <si>
-    <t>1.510,00</t>
-  </si>
-  <si>
-    <t>556,60</t>
-  </si>
-  <si>
-    <t>299,42</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>65.870,00</t>
-  </si>
-  <si>
-    <t>79.512,02</t>
-  </si>
-  <si>
-    <t>1.190,00</t>
-  </si>
-  <si>
-    <t>20.768,70</t>
-  </si>
-  <si>
-    <t>1.718,55</t>
-  </si>
-  <si>
-    <t>9.787,89</t>
-  </si>
-  <si>
-    <t>79.990,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>614,00</t>
-  </si>
-  <si>
-    <t>318,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>4.485,00</t>
-  </si>
-  <si>
-    <t>9.022,35</t>
-  </si>
-  <si>
-    <t>10.374,48</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>69.534,00</t>
-  </si>
-  <si>
-    <t>223,00</t>
-  </si>
-  <si>
-    <t>3.905,21</t>
-  </si>
-  <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>162,00</t>
-  </si>
-  <si>
-    <t>245,72</t>
-  </si>
-  <si>
-    <t>3.139,40</t>
-  </si>
-  <si>
-    <t>1.545,50</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>14.829,54</t>
-  </si>
-  <si>
-    <t>108,21</t>
-  </si>
-  <si>
-    <t>294,00</t>
-  </si>
-  <si>
-    <t>4.240,00</t>
-  </si>
-  <si>
-    <t>4.619,00</t>
-  </si>
-  <si>
-    <t>1.825,11</t>
-  </si>
-  <si>
-    <t>850,75</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>1.473,00</t>
-  </si>
-  <si>
-    <t>590,48</t>
-  </si>
-  <si>
-    <t>2.512,00</t>
-  </si>
-  <si>
-    <t>8.278,61</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>16.368,00</t>
-  </si>
-  <si>
-    <t>5.450,00</t>
-  </si>
-  <si>
-    <t>3.472,50</t>
-  </si>
-  <si>
-    <t>4.541,00</t>
-  </si>
-  <si>
-    <t>32.402,56</t>
-  </si>
-  <si>
-    <t>9,20</t>
-  </si>
-  <si>
-    <t>200.000,00</t>
-  </si>
-  <si>
-    <t>94,12</t>
-  </si>
-  <si>
-    <t>22,00</t>
-  </si>
-  <si>
-    <t>161,00</t>
-  </si>
-  <si>
-    <t>1.405,00</t>
-  </si>
-  <si>
-    <t>4.680,50</t>
-  </si>
-  <si>
-    <t>1.841,00</t>
-  </si>
-  <si>
-    <t>100,41</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>12.816,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>2.680,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>1.622,00</t>
-  </si>
-  <si>
-    <t>2.105,29</t>
-  </si>
-  <si>
-    <t>355,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>5.635,50</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>298,00</t>
-  </si>
-  <si>
-    <t>1.198,25</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>48,40</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>5.520,00</t>
-  </si>
-  <si>
-    <t>2.172,99</t>
-  </si>
-  <si>
-    <t>609,63</t>
-  </si>
-  <si>
-    <t>4.044,00</t>
-  </si>
-  <si>
-    <t>14,00</t>
-  </si>
-  <si>
-    <t>633,20</t>
-  </si>
-  <si>
-    <t>31.964,00</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>68,00</t>
-  </si>
-  <si>
-    <t>588,00</t>
-  </si>
-  <si>
-    <t>12.353,81</t>
-  </si>
-  <si>
-    <t>5.484,90</t>
-  </si>
-  <si>
-    <t>698,00</t>
-  </si>
-  <si>
-    <t>2.854,80</t>
-  </si>
-  <si>
-    <t>1.516,74</t>
-  </si>
-  <si>
-    <t>4.246,55</t>
-  </si>
-  <si>
-    <t>398.999,67</t>
-  </si>
-  <si>
-    <t>46.000,00</t>
-  </si>
-  <si>
-    <t>174.625,00</t>
-  </si>
-  <si>
-    <t>35.200,00</t>
-  </si>
-  <si>
-    <t>56.000,00</t>
-  </si>
-  <si>
-    <t>79.292,91</t>
-  </si>
-  <si>
-    <t>33.300,00</t>
-  </si>
-  <si>
-    <t>263.729,62</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>1.492,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
+    <t>10340.00</t>
+  </si>
+  <si>
+    <t>1510.00</t>
+  </si>
+  <si>
+    <t>556.60</t>
+  </si>
+  <si>
+    <t>299.42</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>65870.00</t>
+  </si>
+  <si>
+    <t>79512.02</t>
+  </si>
+  <si>
+    <t>1190.00</t>
+  </si>
+  <si>
+    <t>20768.70</t>
+  </si>
+  <si>
+    <t>1718.55</t>
+  </si>
+  <si>
+    <t>9787.89</t>
+  </si>
+  <si>
+    <t>79990.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>614.00</t>
+  </si>
+  <si>
+    <t>318.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>4485.00</t>
+  </si>
+  <si>
+    <t>9022.35</t>
+  </si>
+  <si>
+    <t>10374.48</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>69534.00</t>
+  </si>
+  <si>
+    <t>223.00</t>
+  </si>
+  <si>
+    <t>3905.21</t>
+  </si>
+  <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>245.72</t>
+  </si>
+  <si>
+    <t>3139.40</t>
+  </si>
+  <si>
+    <t>1545.50</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>14829.54</t>
+  </si>
+  <si>
+    <t>108.21</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>4240.00</t>
+  </si>
+  <si>
+    <t>4619.00</t>
+  </si>
+  <si>
+    <t>1825.11</t>
+  </si>
+  <si>
+    <t>850.75</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>1473.00</t>
+  </si>
+  <si>
+    <t>590.48</t>
+  </si>
+  <si>
+    <t>2512.00</t>
+  </si>
+  <si>
+    <t>8278.61</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>16368.00</t>
+  </si>
+  <si>
+    <t>5450.00</t>
+  </si>
+  <si>
+    <t>3472.50</t>
+  </si>
+  <si>
+    <t>4541.00</t>
+  </si>
+  <si>
+    <t>32402.56</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>200000.00</t>
+  </si>
+  <si>
+    <t>94.12</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>161.00</t>
+  </si>
+  <si>
+    <t>1405.00</t>
+  </si>
+  <si>
+    <t>4680.50</t>
+  </si>
+  <si>
+    <t>1841.00</t>
+  </si>
+  <si>
+    <t>100.41</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>12816.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>2680.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>1622.00</t>
+  </si>
+  <si>
+    <t>2105.29</t>
+  </si>
+  <si>
+    <t>355.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>5635.50</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>298.00</t>
+  </si>
+  <si>
+    <t>1198.25</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>48.40</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>5520.00</t>
+  </si>
+  <si>
+    <t>2172.99</t>
+  </si>
+  <si>
+    <t>609.63</t>
+  </si>
+  <si>
+    <t>4044.00</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>633.20</t>
+  </si>
+  <si>
+    <t>31964.00</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>588.00</t>
+  </si>
+  <si>
+    <t>12353.81</t>
+  </si>
+  <si>
+    <t>5484.90</t>
+  </si>
+  <si>
+    <t>698.00</t>
+  </si>
+  <si>
+    <t>2854.80</t>
+  </si>
+  <si>
+    <t>1516.74</t>
+  </si>
+  <si>
+    <t>4246.55</t>
+  </si>
+  <si>
+    <t>398999.67</t>
+  </si>
+  <si>
+    <t>46000.00</t>
+  </si>
+  <si>
+    <t>174625.00</t>
+  </si>
+  <si>
+    <t>35200.00</t>
+  </si>
+  <si>
+    <t>56000.00</t>
+  </si>
+  <si>
+    <t>79292.91</t>
+  </si>
+  <si>
+    <t>33300.00</t>
+  </si>
+  <si>
+    <t>263729.62</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>1492.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
   </si>
 </sst>
 </file>
